--- a/example_students_tiny.xlsx
+++ b/example_students_tiny.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conla\PycharmProjects\2023-01_Team6-Conlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D57AF77-7DB8-45D1-A940-1E32D14A4C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D41E43-E372-4E94-B6EA-8DA196A37424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="2925" windowWidth="21600" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="3270" windowWidth="21600" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="8">
   <si>
     <t>Id</t>
   </si>
@@ -366,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +404,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3104535</v>
+        <v>3104533</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -410,18 +421,1803 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>3104534</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3104535</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3104536</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3104537</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3104538</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3104539</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3104540</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3104541</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3104542</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3104543</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3104544</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3104545</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3104546</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3104547</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3104548</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3104549</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3104550</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3104549</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3104549</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3104550</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3104537</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3104538</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3104539</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3104540</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3104541</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3104542</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3104543</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3104544</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3104545</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3104546</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3104547</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3104548</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3104549</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3104550</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3104549</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3104533</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3104534</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3104535</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3104536</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3104537</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3104538</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3104539</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3104540</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3104541</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3104542</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3104543</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3104544</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3104545</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3104546</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3104547</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3104548</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3104549</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3104550</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3104549</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3104549</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3104550</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3104537</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3104538</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3104539</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3104540</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3104541</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3104542</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3104543</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3104544</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3104545</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3104546</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3104547</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3104548</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>3104549</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3104550</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3104549</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3104534</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>3104535</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3104536</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3104537</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3104538</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3104539</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3104540</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3104541</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3104542</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3104543</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3104544</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3104545</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3104546</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3104547</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3104548</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>3104549</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3104550</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3104549</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3104549</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>3104550</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>3104537</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>3104538</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>3104539</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>3104540</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>3104541</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>3104542</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>3104543</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>3104544</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>3104545</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3104546</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>3104547</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>3104548</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>3104549</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>3104550</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>3104549</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" t="s">
         <v>7</v>
       </c>
     </row>
